--- a/Datasources/Season_Data/passing.xlsx
+++ b/Datasources/Season_Data/passing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074AE2B-D6BA-412B-9CE9-09C76E2ED067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197F0577-F60A-4DF1-8A68-5CAB46FE1300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>Player</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Cmp%(L)</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -723,15 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -739,1444 +742,1489 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>33</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>721</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1164</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>61.9</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>22577</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>18179</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>107</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>109</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>98.2</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>311</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>314</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>99</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>300</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>729</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>41.2</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>0.2</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.1</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>-0.2</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>32</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>28.5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>985</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1169</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>84.3</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19954</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>8169</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>265</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>295</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>89.8</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>602</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>676</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>89.1</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>109</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>180</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>60.6</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>0.2</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
         <v>2</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>67</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>75</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>986</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1429</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>69</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>18344</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>7670</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>451</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>550</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>82</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>352</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>465</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>75.7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>156</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>324</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>48.1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>9</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3.7</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5.3</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>46</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>151</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>42</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>9</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>199</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24.6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>777</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1090</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>71.3</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13249</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7545</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>380</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>445</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>85.4</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>308</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>438</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>70.3</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>78</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>165</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>47.3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1.6</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.9</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>15</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>86</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>26</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>14</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>104</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>23.5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>570</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>786</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>72.5</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9987</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3215</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>278</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>328</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>84.8</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>210</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>274</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>76.599999999999994</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>69</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>141</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>48.9</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2.6</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2.8</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>1.4</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>38</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>65</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>24</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>6</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>89</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>21.9</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>440</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>671</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>65.599999999999994</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>7380</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2211</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>202</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>266</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>75.900000000000006</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>184</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>247</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>74.5</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>37</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>78</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>47.4</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1.9</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>23</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>35</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>23</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>13</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>50</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23.6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>686</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>938</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>73.099999999999994</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12416</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5168</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>269</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>339</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>79.400000000000006</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>360</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>441</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>81.599999999999994</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>51</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>131</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>38.9</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0.2</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.4</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-0.2</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>8</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>58</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>79</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>78</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>23.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>373</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>557</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>67</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4903</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1046</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>233</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>320</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>72.8</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>92</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>139</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>66.2</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>19</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>25</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>76</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2.7</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1.6</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-1.7</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>31</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>24</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>14</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>46</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>79</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>21.3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>600</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>726</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>82.6</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9969</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3766</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>306</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>350</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>87.4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>230</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>268</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>85.8</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>49</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>78</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>62.8</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0.3</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.4</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-0.3</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>12</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>90</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>81</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>14.6</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>246</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>380</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>64.7</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>3569</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>906</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>133</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>187</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>71.099999999999994</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>82</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>112</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>73.2</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>13</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>29</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>44.8</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>0.7</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1.2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1.3</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>14</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>23</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>13</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>2</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>38</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14.1</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>462</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>651</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>71</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>7336</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3265</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>241</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>287</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>84</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>183</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>254</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>72</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>30</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>79</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>38</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
       <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>0.6</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.8</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-0.6</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>10</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>32</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>8</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>5</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>52</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>82</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>291</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>376</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>77.400000000000006</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4702</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1095</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>160</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>192</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>83.3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>98</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>117</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>83.8</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>25</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>37</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>67.599999999999994</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1.3</v>
-      </c>
-      <c r="W13">
-        <v>0.7</v>
       </c>
       <c r="X13">
         <v>0.7</v>
       </c>
       <c r="Y13">
+        <v>0.7</v>
+      </c>
+      <c r="Z13">
         <v>12</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>29</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6</v>
       </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
       <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
         <v>56</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>83</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>12.2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>179</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>304</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>58.9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2777</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>927</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>98</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>131</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>74.8</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>54</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>98</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>55.1</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>18</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>41</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>43.9</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3.2</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1.9</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-1.2</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>18</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>13</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>12</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>6</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>25</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>67</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>84</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12.4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>273</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>352</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>77.599999999999994</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4236</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1260</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>141</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>162</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>87</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>93</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>111</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>83.8</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>24</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>42</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>57.1</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>4</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2.1</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1.9</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>20</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>24</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>21</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>55</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11.9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>372</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>477</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>78</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>7293</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2979</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>120</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>145</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>82.8</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>213</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>238</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>89.5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>36</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>77</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>46.8</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1</v>
-      </c>
-      <c r="V16">
-        <v>0.5</v>
       </c>
       <c r="W16">
         <v>0.5</v>
@@ -2185,732 +2233,756 @@
         <v>0.5</v>
       </c>
       <c r="Y16">
+        <v>0.5</v>
+      </c>
+      <c r="Z16">
         <v>5</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>30</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>4</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>36</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>86</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>91</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>163</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>55.8</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1426</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>270</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>45</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>80</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>56.3</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>25</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>41</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>61</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>11</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>68.8</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.3</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.6</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-0.3</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>5</v>
-      </c>
-      <c r="Z17">
-        <v>6</v>
       </c>
       <c r="AA17">
         <v>6</v>
       </c>
       <c r="AB17">
+        <v>6</v>
+      </c>
+      <c r="AC17">
         <v>2</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>12</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>293</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>403</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>72.7</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>4559</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1719</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>147</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>173</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>85</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>116</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>146</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>79.5</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>16</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>52</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>30.8</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.7</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.6</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.3</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>9</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>31</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>6</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>32</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>88</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10.8</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>200</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>312</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>64.099999999999994</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2830</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>985</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>123</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>150</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>82</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>58</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>94</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>61.7</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>36</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>33.299999999999997</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>1.5</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>1.6</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-1.5</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>20</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>13</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>14</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>5</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>25</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>65</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>89</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>10.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>345</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>419</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>82.3</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6851</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2518</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>97</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>108</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>89.8</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>215</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>236</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>91.1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>31</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>63</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>49.2</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0.1</v>
       </c>
       <c r="X20">
+        <v>0.1</v>
+      </c>
+      <c r="Y20">
         <v>-0.1</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>27</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
         <v>29</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>90</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7.3</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>216</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>322</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>67.099999999999994</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3672</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1564</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>101</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>130</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>77.7</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>97</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>139</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>69.8</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>14</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>39</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>35.9</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>1.4</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.4</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-1.4</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>9</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>26</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4</v>
       </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
       <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
         <v>18</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>91</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6.8</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>181</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>254</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>71.3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2992</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1008</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>87</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>125</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>69.599999999999994</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>79</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>91</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>86.8</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>12</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>20</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>60</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>0.5</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.3</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-0.5</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>9</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>28</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>3</v>
       </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
         <v>29</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>92</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6.6</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>243</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>279</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>87.1</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4653</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2147</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>83</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>90</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>92.2</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>142</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>152</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>93.4</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>18</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>31</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>58.1</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>0.1</v>
       </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
       <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>11</v>
       </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
       <c r="AB23">
         <v>0</v>
       </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>14</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>93</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>50</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>65</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>76.900000000000006</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1067</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>449</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>81.8</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>33</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>37</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>89.2</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>15</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>53.3</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -2924,177 +2996,183 @@
         <v>0</v>
       </c>
       <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
         <v>3</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>1</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>94</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>57</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>76</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>75</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>805</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>172</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>36</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>42</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>85.7</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>21</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>90.5</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>7</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>14.3</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>0.1</v>
       </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
       <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>2</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>2</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>64</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>95</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>23</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>28</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>82.1</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>532</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>405</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
         <v>100</v>
-      </c>
-      <c r="O26">
-        <v>15</v>
       </c>
       <c r="P26">
         <v>15</v>
       </c>
       <c r="Q26">
+        <v>15</v>
+      </c>
+      <c r="R26">
         <v>100</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>9</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>55.6</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
         <v>0</v>
       </c>
@@ -3119,71 +3197,74 @@
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>67</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>96</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.6</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>37</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>56</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>66.099999999999994</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>411</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>125</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>25</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>28</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>89.3</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>7</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>14</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>50</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
@@ -3197,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3206,168 +3287,174 @@
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>5</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>65</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>97</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.5</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>16</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>19</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>84.2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>215</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>162</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>88.9</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>7</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>8</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>87.5</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="U28">
+      <c r="T28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0.2</v>
       </c>
       <c r="X28">
+        <v>0.2</v>
+      </c>
+      <c r="Y28">
         <v>-0.2</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
       </c>
       <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>2</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>98</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.3</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>12</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>50</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>112</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>30</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>7</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>57.1</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>50</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
       </c>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
         <v>100</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
         <v>0</v>
       </c>
@@ -3381,47 +3468,50 @@
         <v>0</v>
       </c>
       <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
       <c r="AB29">
         <v>0</v>
       </c>
       <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>2</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>99</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="K30">
@@ -3433,19 +3523,19 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="O30">
+      <c r="N30">
         <v>0</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="R30">
+      <c r="Q30">
         <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="U30">
+      <c r="T30">
         <v>0</v>
       </c>
       <c r="V30">
@@ -3472,173 +3562,176 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>100</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>34</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>9719</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>13478</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>72.099999999999994</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>178817</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>78955</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4152</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>5062</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>82</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>4186</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>5188</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>80.7</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1143</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2448</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>46.7</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>34</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>26.9</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>25.5</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>7.1</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>316</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>910</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>234</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>71</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>101</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>13174</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>17042</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>77.3</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>251586</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>95407</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5285</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>6130</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>86.2</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>5854</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>6882</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>85.1</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1754</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>3068</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>57.2</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>31</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>36.299999999999997</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>37.799999999999997</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-5.3</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>323</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>1077</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>296</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>67</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>1405</v>
       </c>
     </row>
